--- a/logs/RiggsCharles_Time_Estimation.xlsx
+++ b/logs/RiggsCharles_Time_Estimation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesriggs/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesriggs/Desktop/Portfolio/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -370,6 +370,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -379,49 +418,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,284 +743,304 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>15</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>10</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <f>C7-D7</f>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>30</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>20</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="9">
         <f>C8-D8</f>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>35</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>45</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="9">
         <f>C9-D9</f>
         <v>-10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>45</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>40</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="9">
         <f>C10-D10</f>
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>30</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>35</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <f>C11-D11</f>
         <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:7" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="9">
+      <c r="C15" s="5">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5">
+        <v>20</v>
+      </c>
+      <c r="E15" s="6">
         <f>C15-D15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12">
+      <c r="C16" s="8">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8">
+        <v>15</v>
+      </c>
+      <c r="E16" s="9">
         <f>C16-D16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12">
+      <c r="C17" s="8">
+        <v>45</v>
+      </c>
+      <c r="D17" s="8">
+        <v>45</v>
+      </c>
+      <c r="E17" s="9">
         <f>C17-D17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12">
+      <c r="C18" s="8">
+        <v>35</v>
+      </c>
+      <c r="D18" s="8">
+        <v>40</v>
+      </c>
+      <c r="E18" s="9">
         <f>C18-D18</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21">
+      <c r="C19" s="15">
+        <v>35</v>
+      </c>
+      <c r="D19" s="15">
+        <v>15</v>
+      </c>
+      <c r="E19" s="16">
         <f>C19-D19</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:5" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6">
         <f>C23-D23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9">
         <f>C24-D24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9">
         <f>C25-D25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16">
         <f>C26-D26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:5" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
     </row>
     <row r="29" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9">
-        <f>C29-D29</f>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6">
+        <f t="shared" ref="E29:E34" si="0">C29-D29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12">
-        <f>C30-D30</f>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12">
-        <f>C31-D31</f>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12">
-        <f>C32-D32</f>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12">
-        <f>C33-D33</f>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="21">
-        <f>C34-D34</f>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/logs/RiggsCharles_Time_Estimation.xlsx
+++ b/logs/RiggsCharles_Time_Estimation.xlsx
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,8 +929,12 @@
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="5">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20</v>
+      </c>
       <c r="E23" s="6">
         <f>C23-D23</f>
         <v>0</v>
@@ -940,8 +944,12 @@
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="8">
+        <v>20</v>
+      </c>
+      <c r="D24" s="8">
+        <v>20</v>
+      </c>
       <c r="E24" s="9">
         <f>C24-D24</f>
         <v>0</v>
@@ -951,22 +959,30 @@
       <c r="B25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="8">
+        <v>30</v>
+      </c>
+      <c r="D25" s="8">
+        <v>15</v>
+      </c>
       <c r="E25" s="9">
         <f>C25-D25</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="15">
+        <v>45</v>
+      </c>
+      <c r="D26" s="15">
+        <v>40</v>
+      </c>
       <c r="E26" s="16">
         <f>C26-D26</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -982,66 +998,78 @@
       <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5">
+        <v>20</v>
+      </c>
       <c r="D29" s="5"/>
       <c r="E29" s="6">
         <f t="shared" ref="E29:E34" si="0">C29-D29</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="8">
+        <v>20</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="8">
+        <v>40</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="8">
+        <v>35</v>
+      </c>
       <c r="D32" s="8"/>
       <c r="E32" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="8"/>
+      <c r="C33" s="8">
+        <v>35</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="15">
+        <v>40</v>
+      </c>
       <c r="D34" s="15"/>
       <c r="E34" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
